--- a/Documentatie/Moscow/Moscow.xlsx
+++ b/Documentatie/Moscow/Moscow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricky\Documents\GitHub\Bioscoop\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Bioscoop\Documentatie\Moscow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C399CB1-4606-402B-BDE2-AE17433F155D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADBAF6-50DB-4461-B8A5-9A12C4F07EDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="72" windowWidth="28752" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,18 @@
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -210,16 +222,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -229,7 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -237,11 +241,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Controlecel" xfId="2" builtinId="23"/>
+    <cellStyle name="Goed" xfId="1" builtinId="26"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -257,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -580,7 +598,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,277 +612,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
